--- a/data/trans_orig/POLIPATOLOGIA_Lim_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_2-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>176289</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>153636</v>
+        <v>152073</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>203611</v>
+        <v>203235</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1688696321907091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1471703500539057</v>
+        <v>0.1456727294678405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1950415294977583</v>
+        <v>0.1946816823256919</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>356</v>
@@ -764,19 +764,19 @@
         <v>384074</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>353401</v>
+        <v>351807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>417456</v>
+        <v>417015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3429456524576369</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3155569178176267</v>
+        <v>0.3141335495970913</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3727525337743624</v>
+        <v>0.3723584505834273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>517</v>
@@ -785,19 +785,19 @@
         <v>560363</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>518547</v>
+        <v>518377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>602503</v>
+        <v>601473</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2589643643437599</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2396396090099976</v>
+        <v>0.2395608974570211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2784385613400913</v>
+        <v>0.2779624306491357</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>867646</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>840324</v>
+        <v>840700</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>890299</v>
+        <v>891862</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8311303678092908</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8049584705022416</v>
+        <v>0.8053183176743081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8528296499460942</v>
+        <v>0.8543272705321595</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>675</v>
@@ -835,19 +835,19 @@
         <v>735854</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>702472</v>
+        <v>702913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>766527</v>
+        <v>768121</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6570543475423631</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6272474662256377</v>
+        <v>0.6276415494165726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6844430821823733</v>
+        <v>0.6858664504029082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1492</v>
@@ -856,19 +856,19 @@
         <v>1603500</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1561360</v>
+        <v>1562390</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1645316</v>
+        <v>1645486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7410356356562401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7215614386599087</v>
+        <v>0.7220375693508646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7603603909900023</v>
+        <v>0.7604391025429792</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>175505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151284</v>
+        <v>150155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202364</v>
+        <v>201606</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1796236746680205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1548341059073527</v>
+        <v>0.1536787520259395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2071122194185769</v>
+        <v>0.2063371082781301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>297</v>
@@ -981,19 +981,19 @@
         <v>315394</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>285675</v>
+        <v>285648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>347903</v>
+        <v>345875</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2882254089316233</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2610664344700934</v>
+        <v>0.2610421196162969</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3179343597479733</v>
+        <v>0.3160808592776561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>455</v>
@@ -1002,19 +1002,19 @@
         <v>490900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>448174</v>
+        <v>452908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>530154</v>
+        <v>527473</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2369967076609484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2163696738328518</v>
+        <v>0.2186549739401218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2559479149025649</v>
+        <v>0.2546536254394964</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>801568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>774709</v>
+        <v>775467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>825789</v>
+        <v>826918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8203763253319796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.792887780581423</v>
+        <v>0.79366289172187</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8451658940926473</v>
+        <v>0.8463212479740606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>723</v>
@@ -1052,19 +1052,19 @@
         <v>778868</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>746359</v>
+        <v>748387</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>808587</v>
+        <v>808614</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7117745910683767</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6820656402520267</v>
+        <v>0.6839191407223438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7389335655299066</v>
+        <v>0.7389578803837032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1489</v>
@@ -1073,19 +1073,19 @@
         <v>1580435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1541181</v>
+        <v>1543862</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1623161</v>
+        <v>1618427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7630032923390516</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7440520850974351</v>
+        <v>0.7453463745605036</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7836303261671481</v>
+        <v>0.7813450260598782</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>163183</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139874</v>
+        <v>139351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>187056</v>
+        <v>186856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1843637425819404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1580287989084601</v>
+        <v>0.1574378090720233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2113357400187596</v>
+        <v>0.2111097457895502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -1198,19 +1198,19 @@
         <v>227537</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>201610</v>
+        <v>201418</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>252570</v>
+        <v>252345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.259805889531051</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2302021050950748</v>
+        <v>0.2299828022963041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2883894513412935</v>
+        <v>0.2881318621149838</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>362</v>
@@ -1219,19 +1219,19 @@
         <v>390720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>358237</v>
+        <v>356750</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>428169</v>
+        <v>427953</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2218851835899784</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2034384306676707</v>
+        <v>0.2025939404502815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2431517040346117</v>
+        <v>0.2430293972083635</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>721932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>698059</v>
+        <v>698259</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>745241</v>
+        <v>745764</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8156362574180596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7886642599812403</v>
+        <v>0.7888902542104497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8419712010915399</v>
+        <v>0.8425621909279765</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>610</v>
@@ -1269,19 +1269,19 @@
         <v>648259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623226</v>
+        <v>623451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>674186</v>
+        <v>674378</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.740194110468949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7116105486587064</v>
+        <v>0.7118681378850162</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7697978949049253</v>
+        <v>0.7700171977036959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1289</v>
@@ -1290,19 +1290,19 @@
         <v>1370191</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1332742</v>
+        <v>1332958</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1402674</v>
+        <v>1404161</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7781148164100216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7568482959653882</v>
+        <v>0.7569706027916365</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7965615693323294</v>
+        <v>0.7974060595497185</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>63455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49421</v>
+        <v>50230</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80641</v>
+        <v>82593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1261478905014352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09824792289309674</v>
+        <v>0.09985627842861947</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1603119775402903</v>
+        <v>0.1641923926676619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -1415,19 +1415,19 @@
         <v>103107</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84519</v>
+        <v>85747</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120552</v>
+        <v>123154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2277417459469945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1866840112644751</v>
+        <v>0.1893970584863863</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2662733735585804</v>
+        <v>0.2720212360940487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1436,19 +1436,19 @@
         <v>166562</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141004</v>
+        <v>143777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191515</v>
+        <v>193636</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1742721454264316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1475308744378174</v>
+        <v>0.1504328336656822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2003802822624845</v>
+        <v>0.2025998309807081</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>439568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>422382</v>
+        <v>420430</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>453602</v>
+        <v>452793</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8738521094985648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8396880224597096</v>
+        <v>0.8358076073323383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9017520771069032</v>
+        <v>0.9001437215713812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>322</v>
@@ -1486,19 +1486,19 @@
         <v>349629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332184</v>
+        <v>329582</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368217</v>
+        <v>366989</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7722582540530055</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7337266264414196</v>
+        <v>0.7279787639059515</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8133159887355249</v>
+        <v>0.8106029415136139</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -1507,19 +1507,19 @@
         <v>789196</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>764243</v>
+        <v>762122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>814754</v>
+        <v>811981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8257278545735685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7996197177375157</v>
+        <v>0.7974001690192922</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8524691255621827</v>
+        <v>0.8495671663343177</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>578433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>532419</v>
+        <v>532825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>624866</v>
+        <v>625039</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1696708752709715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1561737327230662</v>
+        <v>0.1562927580757061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1832912146140307</v>
+        <v>0.1833417985144207</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>954</v>
@@ -1632,19 +1632,19 @@
         <v>1030112</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>974425</v>
+        <v>974622</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1081083</v>
+        <v>1087457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2907686372294658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2750499352282895</v>
+        <v>0.2751052805105657</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.305156109046467</v>
+        <v>0.306955196471478</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1480</v>
@@ -1653,19 +1653,19 @@
         <v>1608545</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1534893</v>
+        <v>1540709</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1683778</v>
+        <v>1682252</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2313831717897173</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2207885572279374</v>
+        <v>0.2216252719256739</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2422051333182394</v>
+        <v>0.2419857062341861</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>2830712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2784279</v>
+        <v>2784106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2876726</v>
+        <v>2876320</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8303291247290285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8167087853859695</v>
+        <v>0.8166582014855793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8438262672769339</v>
+        <v>0.8437072419242938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2330</v>
@@ -1703,19 +1703,19 @@
         <v>2512610</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2461639</v>
+        <v>2455265</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2568297</v>
+        <v>2568100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7092313627705341</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6948438909535329</v>
+        <v>0.693044803528522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7249500647717104</v>
+        <v>0.7248947194894343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4997</v>
@@ -1724,19 +1724,19 @@
         <v>5343322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5268089</v>
+        <v>5269615</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5416974</v>
+        <v>5411158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7686168282102827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7577948666817607</v>
+        <v>0.7580142937658139</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7792114427720626</v>
+        <v>0.7783747280743261</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>198269</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>173172</v>
+        <v>176315</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224254</v>
+        <v>226801</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1757712397502172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1535213063301309</v>
+        <v>0.1563081683927461</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1988069210248508</v>
+        <v>0.2010655926613145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>366</v>
@@ -2089,19 +2089,19 @@
         <v>411764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377625</v>
+        <v>375732</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>448250</v>
+        <v>445787</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3269107406947518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2998072206391038</v>
+        <v>0.2983042358884637</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3558779346005423</v>
+        <v>0.3539224073048539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>558</v>
@@ -2110,19 +2110,19 @@
         <v>610033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>565613</v>
+        <v>568546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>655997</v>
+        <v>650421</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2555051713108255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2369003250924267</v>
+        <v>0.2381285530057381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2747562812880638</v>
+        <v>0.2724210823260588</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>929728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>903743</v>
+        <v>901196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>954825</v>
+        <v>951682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8242287602497828</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8011930789751491</v>
+        <v>0.7989344073386855</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8464786936698692</v>
+        <v>0.843691831607254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>822</v>
@@ -2160,19 +2160,19 @@
         <v>847797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>811311</v>
+        <v>813774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>881936</v>
+        <v>883829</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6730892593052482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6441220653994579</v>
+        <v>0.6460775926951464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7001927793608962</v>
+        <v>0.7016957641115364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1696</v>
@@ -2181,19 +2181,19 @@
         <v>1777525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1731561</v>
+        <v>1737137</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1821945</v>
+        <v>1819012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7444948286891746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7252437187119362</v>
+        <v>0.7275789176739412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7630996749075732</v>
+        <v>0.7618714469942619</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>134155</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114159</v>
+        <v>114824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>154982</v>
+        <v>157403</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1476140585322681</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1256115246713383</v>
+        <v>0.126343282753853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1705300590655908</v>
+        <v>0.1731936088206982</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>217</v>
@@ -2306,19 +2306,19 @@
         <v>242352</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>214313</v>
+        <v>218231</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271316</v>
+        <v>270943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.24079292264812</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2129339309738789</v>
+        <v>0.2168272581443743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2695702304442064</v>
+        <v>0.2691998031480008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>353</v>
@@ -2327,19 +2327,19 @@
         <v>376507</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>343385</v>
+        <v>339096</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413706</v>
+        <v>409079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1965788270821245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1792851295861165</v>
+        <v>0.1770460891086521</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2160006476285024</v>
+        <v>0.2135847770311085</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>774670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>753843</v>
+        <v>751422</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>794666</v>
+        <v>794001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8523859414677319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8294699409344091</v>
+        <v>0.8268063911793019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8743884753286617</v>
+        <v>0.8736567172461471</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>734</v>
@@ -2377,19 +2377,19 @@
         <v>764123</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>735159</v>
+        <v>735532</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>792162</v>
+        <v>788244</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.75920707735188</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7304297695557936</v>
+        <v>0.7308001968519992</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7870660690261211</v>
+        <v>0.7831727418556257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1479</v>
@@ -2398,19 +2398,19 @@
         <v>1538793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1501594</v>
+        <v>1506221</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1571915</v>
+        <v>1576204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8034211729178755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7839993523714976</v>
+        <v>0.7864152229688915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8207148704138836</v>
+        <v>0.8229539108913478</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>111415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92154</v>
+        <v>93068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131184</v>
+        <v>132031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1352516614550896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1118700666218319</v>
+        <v>0.1129798967453869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1592501251991499</v>
+        <v>0.1602781295292811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -2523,19 +2523,19 @@
         <v>167439</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145381</v>
+        <v>146729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195461</v>
+        <v>195129</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2171545763600562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1885468956295898</v>
+        <v>0.1902949265832095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2534966097091514</v>
+        <v>0.2530666318421171</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>257</v>
@@ -2544,19 +2544,19 @@
         <v>278854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>250001</v>
+        <v>249575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>312928</v>
+        <v>308855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1748498822002304</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1567585843203266</v>
+        <v>0.1564912444566526</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1962156680674813</v>
+        <v>0.1936618183709665</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>712344</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>692575</v>
+        <v>691728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>731605</v>
+        <v>730691</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8647483385449104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8407498748008504</v>
+        <v>0.8397218704707193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8881299333781681</v>
+        <v>0.8870201032546133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>583</v>
@@ -2594,19 +2594,19 @@
         <v>603620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>575598</v>
+        <v>575930</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>625678</v>
+        <v>624330</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7828454236399438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7465033902908488</v>
+        <v>0.7469333681578831</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8114531043704102</v>
+        <v>0.8097050734167905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -2615,19 +2615,19 @@
         <v>1315964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1281890</v>
+        <v>1285963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1344817</v>
+        <v>1345243</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8251501177997697</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8037843319325187</v>
+        <v>0.8063381816290336</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8432414156796733</v>
+        <v>0.8435087555433476</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>58648</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45731</v>
+        <v>45193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74737</v>
+        <v>74651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1157439162109203</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09025303599601162</v>
+        <v>0.08918984837315011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1474978964026606</v>
+        <v>0.1473274365233829</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -2740,19 +2740,19 @@
         <v>83619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67993</v>
+        <v>67777</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102804</v>
+        <v>102322</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1707563455987051</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1388467327814717</v>
+        <v>0.1384049474387332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2099332032770085</v>
+        <v>0.2089491334724712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -2761,19 +2761,19 @@
         <v>142266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121784</v>
+        <v>121260</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167182</v>
+        <v>166210</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1427807426016955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1222246986666717</v>
+        <v>0.1216979867222582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1677868176370759</v>
+        <v>0.1668109500806854</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>448053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>431964</v>
+        <v>432050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>460970</v>
+        <v>461508</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8842560837890797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8525021035973394</v>
+        <v>0.852672563476617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9097469640039884</v>
+        <v>0.9108101516268499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>383</v>
@@ -2811,19 +2811,19 @@
         <v>406079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>386894</v>
+        <v>387376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>421705</v>
+        <v>421921</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8292436544012949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7900667967229915</v>
+        <v>0.7910508665275289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8611532672185284</v>
+        <v>0.8615950525612668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>799</v>
@@ -2832,19 +2832,19 @@
         <v>854132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>829216</v>
+        <v>830188</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>874614</v>
+        <v>875138</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8572192573983044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8322131823629239</v>
+        <v>0.8331890499193143</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8777753013333282</v>
+        <v>0.8783020132777417</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>502487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>465549</v>
+        <v>460667</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>546082</v>
+        <v>544386</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1492263236499124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1382565278848191</v>
+        <v>0.1368067208105113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1621729673442862</v>
+        <v>0.1616693858189776</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>800</v>
@@ -2957,19 +2957,19 @@
         <v>905174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>853165</v>
+        <v>854279</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>961174</v>
+        <v>957895</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.256656439131464</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2419096708984067</v>
+        <v>0.2422253935825648</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.272534898368697</v>
+        <v>0.2716052207894414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1295</v>
@@ -2978,19 +2978,19 @@
         <v>1407661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1333534</v>
+        <v>1330781</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1478845</v>
+        <v>1467923</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2041842014904937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1934318243123352</v>
+        <v>0.1930325125298204</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2145096169097871</v>
+        <v>0.2129253334662211</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>2864795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2821200</v>
+        <v>2822896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2901733</v>
+        <v>2906615</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8507736763500876</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8378270326557132</v>
+        <v>0.8383306141810223</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8617434721151808</v>
+        <v>0.8631932791894886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2522</v>
@@ -3028,19 +3028,19 @@
         <v>2621618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2565618</v>
+        <v>2568897</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2673627</v>
+        <v>2672513</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.743343560868536</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.727465101631303</v>
+        <v>0.7283947792105591</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7580903291015934</v>
+        <v>0.7577746064174353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5232</v>
@@ -3049,19 +3049,19 @@
         <v>5486414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5415230</v>
+        <v>5426152</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5560541</v>
+        <v>5563294</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7958157985095063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7854903830902125</v>
+        <v>0.7870746665337789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8065681756876645</v>
+        <v>0.8069674874701795</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>148514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128169</v>
+        <v>127456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169788</v>
+        <v>170604</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2977790962614053</v>
+        <v>0.2977790962614052</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2569864023853922</v>
+        <v>0.255556385005825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3404352834284565</v>
+        <v>0.3420700797851398</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>431</v>
@@ -3414,19 +3414,19 @@
         <v>271516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>250552</v>
+        <v>248901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>293355</v>
+        <v>292805</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4354151787656307</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4017953309540713</v>
+        <v>0.3991477371997978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4704364166106045</v>
+        <v>0.4695549048799493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>594</v>
@@ -3435,19 +3435,19 @@
         <v>420031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>390421</v>
+        <v>394021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>453717</v>
+        <v>455306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3742520943757947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.347869259043657</v>
+        <v>0.3510776671807616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4042668655004582</v>
+        <v>0.4056828503186543</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>350225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>328951</v>
+        <v>328135</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>370570</v>
+        <v>371283</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7022209037385949</v>
+        <v>0.7022209037385948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6595647165715436</v>
+        <v>0.6579299202148601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7430135976146076</v>
+        <v>0.7444436149941749</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>430</v>
@@ -3485,19 +3485,19 @@
         <v>352064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>330225</v>
+        <v>330775</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>373028</v>
+        <v>374679</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.564584821234369</v>
+        <v>0.5645848212343691</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5295635833893961</v>
+        <v>0.5304450951200508</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5982046690459287</v>
+        <v>0.6008522628002021</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>722</v>
@@ -3506,19 +3506,19 @@
         <v>702289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>668603</v>
+        <v>667014</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>731899</v>
+        <v>728299</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6257479056242055</v>
+        <v>0.6257479056242053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5957331344995418</v>
+        <v>0.594317149681346</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6521307409563432</v>
+        <v>0.6489223328192384</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>175311</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>151438</v>
+        <v>149636</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198453</v>
+        <v>198831</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.182589437953689</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1577251430616676</v>
+        <v>0.1558487943366514</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2066920127875626</v>
+        <v>0.2070865018869616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>626</v>
@@ -3631,19 +3631,19 @@
         <v>377196</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>352055</v>
+        <v>351238</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>407178</v>
+        <v>406870</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3380349757143318</v>
+        <v>0.3380349757143317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3155040554176788</v>
+        <v>0.3147717682015846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3649045030134211</v>
+        <v>0.3646282420747293</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>840</v>
@@ -3652,19 +3652,19 @@
         <v>552507</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>515806</v>
+        <v>515342</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>589621</v>
+        <v>590771</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2661419268372595</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2484633499660246</v>
+        <v>0.2482394516112107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2840199470728662</v>
+        <v>0.2845736888061761</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>784826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>761684</v>
+        <v>761306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>808699</v>
+        <v>810501</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.817410562046311</v>
+        <v>0.8174105620463111</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7933079872124374</v>
+        <v>0.7929134981130381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8422748569383325</v>
+        <v>0.8441512056633487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>981</v>
@@ -3702,19 +3702,19 @@
         <v>738653</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>708671</v>
+        <v>708979</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>763794</v>
+        <v>764611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6619650242856682</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6350954969865791</v>
+        <v>0.6353717579252707</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6844959445823211</v>
+        <v>0.6852282317984154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1677</v>
@@ -3723,19 +3723,19 @@
         <v>1523479</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1486365</v>
+        <v>1485215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1560180</v>
+        <v>1560644</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7338580731627405</v>
+        <v>0.7338580731627404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.715980052927134</v>
+        <v>0.7154263111938237</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7515366500339755</v>
+        <v>0.7517605483887894</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>141420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122082</v>
+        <v>121435</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>164715</v>
+        <v>162034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1351390115089313</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1166595242798373</v>
+        <v>0.1160412378114268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1573988481057596</v>
+        <v>0.154837712490814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>477</v>
@@ -3848,19 +3848,19 @@
         <v>296781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>272341</v>
+        <v>273476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>321001</v>
+        <v>323266</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2832851854424398</v>
+        <v>0.2832851854424397</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2599565921660142</v>
+        <v>0.2610397001437806</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3064029428853207</v>
+        <v>0.3085652381710284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>654</v>
@@ -3869,19 +3869,19 @@
         <v>438202</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>403371</v>
+        <v>404877</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>475813</v>
+        <v>474403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2092532132894842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.192620562919393</v>
+        <v>0.1933396360770902</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2272139327433184</v>
+        <v>0.2265402269805307</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>905059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>881764</v>
+        <v>884445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>924397</v>
+        <v>925044</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8648609884910686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8426011518942405</v>
+        <v>0.845162287509186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8833404757201627</v>
+        <v>0.8839587621885731</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1039</v>
@@ -3919,19 +3919,19 @@
         <v>750861</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>726641</v>
+        <v>724376</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>775301</v>
+        <v>774166</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7167148145575603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.693597057114679</v>
+        <v>0.6914347618289717</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7400434078339854</v>
+        <v>0.7389602998562194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1891</v>
@@ -3940,19 +3940,19 @@
         <v>1655919</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1618308</v>
+        <v>1619718</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1690750</v>
+        <v>1689244</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7907467867105156</v>
+        <v>0.7907467867105157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7727860672566816</v>
+        <v>0.7734597730194692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8073794370806069</v>
+        <v>0.8066603639229086</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>166477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142962</v>
+        <v>144091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191213</v>
+        <v>194241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1705831069154008</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1464878643947357</v>
+        <v>0.1476449674649465</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1959296795070059</v>
+        <v>0.1990323098964315</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>387</v>
@@ -4065,19 +4065,19 @@
         <v>250246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>227025</v>
+        <v>226074</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>275561</v>
+        <v>273774</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2748918691328837</v>
+        <v>0.2748918691328838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2493835094331953</v>
+        <v>0.2483389129782106</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3026990457844905</v>
+        <v>0.3007369282060294</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>568</v>
@@ -4086,19 +4086,19 @@
         <v>416723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>384539</v>
+        <v>383416</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>453594</v>
+        <v>451534</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.220924123077598</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2038619418834192</v>
+        <v>0.203266156673917</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2404706957068334</v>
+        <v>0.2393787772694473</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>809452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>784716</v>
+        <v>781688</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>832967</v>
+        <v>831838</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8294168930845992</v>
+        <v>0.8294168930845993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.804070320492994</v>
+        <v>0.8009676901035685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8535121356052643</v>
+        <v>0.8523550325350535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>937</v>
@@ -4136,19 +4136,19 @@
         <v>660099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>634784</v>
+        <v>636571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>683320</v>
+        <v>684271</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7251081308671162</v>
+        <v>0.7251081308671163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6973009542155095</v>
+        <v>0.6992630717939708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7506164905668048</v>
+        <v>0.7516610870217894</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1703</v>
@@ -4157,19 +4157,19 @@
         <v>1469551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1432680</v>
+        <v>1434740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1501735</v>
+        <v>1502858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7790758769224021</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7595293042931665</v>
+        <v>0.7606212227305527</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7961380581165809</v>
+        <v>0.796733843326083</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>631722</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>590833</v>
+        <v>586895</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>681464</v>
+        <v>677662</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1814623830976815</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1697170392215538</v>
+        <v>0.16858588218744</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1957508419987736</v>
+        <v>0.1946586650293336</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1921</v>
@@ -4282,19 +4282,19 @@
         <v>1195740</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1142826</v>
+        <v>1141681</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1245406</v>
+        <v>1239594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3233988655579608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3090877918289964</v>
+        <v>0.308777944663673</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3368313506430172</v>
+        <v>0.3352595497625903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2656</v>
@@ -4303,19 +4303,19 @@
         <v>1827462</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1754274</v>
+        <v>1767033</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1892502</v>
+        <v>1901064</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2545672907775961</v>
+        <v>0.2545672907775962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.244372117526863</v>
+        <v>0.2461493665844524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2636273287565862</v>
+        <v>0.2648200043300348</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>2849562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2799820</v>
+        <v>2803622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2890451</v>
+        <v>2894389</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8185376169023185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8042491580012263</v>
+        <v>0.8053413349706665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8302829607784463</v>
+        <v>0.8314141178125602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3387</v>
@@ -4353,19 +4353,19 @@
         <v>2501676</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2452010</v>
+        <v>2457822</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2554590</v>
+        <v>2555735</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6766011344420392</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6631686493569826</v>
+        <v>0.6647404502374097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6909122081710035</v>
+        <v>0.6912220553363271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5993</v>
@@ -4374,19 +4374,19 @@
         <v>5351239</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5286199</v>
+        <v>5277637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5424427</v>
+        <v>5411668</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7454327092224039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7363726712434139</v>
+        <v>0.7351799956699653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7556278824731371</v>
+        <v>0.7538506334155477</v>
       </c>
     </row>
     <row r="18">
